--- a/sc/input.xlsx
+++ b/sc/input.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="561">
   <si>
     <t>返回目录</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2235,6 +2235,10 @@
   </si>
   <si>
     <t>000028</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2329,7 +2333,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2466,6 +2470,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2474,7 +2489,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2586,19 +2601,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2883,10 +2901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH30"/>
+  <dimension ref="A1:JI30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD1348"/>
+    <sheetView tabSelected="1" topLeftCell="IU1" workbookViewId="0">
+      <selection activeCell="JI4" sqref="JI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2984,7 +3002,7 @@
     <col min="209" max="214" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2994,10 +3012,10 @@
       <c r="E1" s="3">
         <v>0</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="41"/>
+      <c r="G1" s="38"/>
       <c r="H1" s="4"/>
       <c r="I1" s="5">
         <v>1</v>
@@ -3264,10 +3282,10 @@
       <c r="JG1" s="15"/>
       <c r="JH1" s="15"/>
     </row>
-    <row r="2" spans="1:268" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:269" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16">
         <f ca="1">TODAY()</f>
-        <v>43448</v>
+        <v>43453</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="13"/>
@@ -3394,13 +3412,13 @@
       <c r="CN2" s="39"/>
       <c r="CO2" s="39"/>
       <c r="CP2" s="39"/>
-      <c r="CQ2" s="38" t="s">
+      <c r="CQ2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="CR2" s="38"/>
-      <c r="CS2" s="38"/>
-      <c r="CT2" s="38"/>
-      <c r="CU2" s="38"/>
+      <c r="CR2" s="40"/>
+      <c r="CS2" s="40"/>
+      <c r="CT2" s="40"/>
+      <c r="CU2" s="40"/>
       <c r="CV2" s="36" t="s">
         <v>16</v>
       </c>
@@ -3459,12 +3477,12 @@
       <c r="EQ2" s="36"/>
       <c r="ER2" s="36"/>
       <c r="ES2" s="36"/>
-      <c r="ET2" s="38" t="s">
+      <c r="ET2" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="EU2" s="38"/>
-      <c r="EV2" s="38"/>
-      <c r="EW2" s="38"/>
+      <c r="EU2" s="40"/>
+      <c r="EV2" s="40"/>
+      <c r="EW2" s="40"/>
       <c r="EX2" s="36" t="s">
         <v>21</v>
       </c>
@@ -3515,17 +3533,17 @@
       <c r="GK2" s="36"/>
       <c r="GL2" s="36"/>
       <c r="GM2" s="36"/>
-      <c r="GN2" s="37" t="s">
+      <c r="GN2" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="GO2" s="37"/>
-      <c r="GP2" s="37"/>
-      <c r="GQ2" s="37"/>
-      <c r="GR2" s="37"/>
-      <c r="GS2" s="37"/>
-      <c r="GT2" s="37"/>
-      <c r="GU2" s="37"/>
-      <c r="GV2" s="37"/>
+      <c r="GO2" s="41"/>
+      <c r="GP2" s="41"/>
+      <c r="GQ2" s="41"/>
+      <c r="GR2" s="41"/>
+      <c r="GS2" s="41"/>
+      <c r="GT2" s="41"/>
+      <c r="GU2" s="41"/>
+      <c r="GV2" s="41"/>
       <c r="GW2" s="36" t="s">
         <v>26</v>
       </c>
@@ -3607,7 +3625,7 @@
       <c r="JG2" s="36"/>
       <c r="JH2" s="36"/>
     </row>
-    <row r="3" spans="1:268" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:269" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
         <v>0.36776620370370372</v>
       </c>
@@ -4407,7 +4425,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="1:268" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>295</v>
       </c>
@@ -5212,8 +5230,11 @@
       <c r="JH4" s="27" t="s">
         <v>559</v>
       </c>
+      <c r="JI4" s="42" t="s">
+        <v>560</v>
+      </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A5" s="34"/>
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
@@ -5480,7 +5501,7 @@
       <c r="JG5" s="35"/>
       <c r="JH5" s="35"/>
     </row>
-    <row r="6" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A6" s="34"/>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
@@ -5747,7 +5768,7 @@
       <c r="JG6" s="35"/>
       <c r="JH6" s="35"/>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="34"/>
       <c r="E7" s="35"/>
       <c r="F7" s="35"/>
@@ -6014,7 +6035,7 @@
       <c r="JG7" s="35"/>
       <c r="JH7" s="35"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="34"/>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
@@ -6281,7 +6302,7 @@
       <c r="JG8" s="35"/>
       <c r="JH8" s="35"/>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="34"/>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
@@ -6548,7 +6569,7 @@
       <c r="JG9" s="35"/>
       <c r="JH9" s="35"/>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="34"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
@@ -6815,7 +6836,7 @@
       <c r="JG10" s="35"/>
       <c r="JH10" s="35"/>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="34"/>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
@@ -7082,7 +7103,7 @@
       <c r="JG11" s="35"/>
       <c r="JH11" s="35"/>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="34"/>
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
@@ -7349,7 +7370,7 @@
       <c r="JG12" s="35"/>
       <c r="JH12" s="35"/>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="34"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
@@ -7616,7 +7637,7 @@
       <c r="JG13" s="35"/>
       <c r="JH13" s="35"/>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="34"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -7883,7 +7904,7 @@
       <c r="JG14" s="35"/>
       <c r="JH14" s="35"/>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
@@ -8150,7 +8171,7 @@
       <c r="JG15" s="35"/>
       <c r="JH15" s="35"/>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="34"/>
       <c r="E16" s="35"/>
       <c r="F16" s="35"/>
@@ -12157,6 +12178,27 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="IL2:IP2"/>
+    <mergeCell ref="IQ2:IX2"/>
+    <mergeCell ref="IY2:JH2"/>
+    <mergeCell ref="GN2:GV2"/>
+    <mergeCell ref="GW2:HD2"/>
+    <mergeCell ref="HE2:HI2"/>
+    <mergeCell ref="HJ2:HQ2"/>
+    <mergeCell ref="HR2:HV2"/>
+    <mergeCell ref="HW2:IK2"/>
+    <mergeCell ref="GF2:GM2"/>
+    <mergeCell ref="BZ2:CI2"/>
+    <mergeCell ref="CJ2:CP2"/>
+    <mergeCell ref="CQ2:CU2"/>
+    <mergeCell ref="CV2:DM2"/>
+    <mergeCell ref="DN2:DX2"/>
+    <mergeCell ref="DY2:EL2"/>
+    <mergeCell ref="EM2:ES2"/>
+    <mergeCell ref="ET2:EW2"/>
+    <mergeCell ref="EX2:FA2"/>
+    <mergeCell ref="FB2:FV2"/>
+    <mergeCell ref="FW2:GE2"/>
     <mergeCell ref="BQ2:BY2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H2:K2"/>
@@ -12169,27 +12211,6 @@
     <mergeCell ref="AQ2:AZ2"/>
     <mergeCell ref="BA2:BH2"/>
     <mergeCell ref="BI2:BP2"/>
-    <mergeCell ref="GF2:GM2"/>
-    <mergeCell ref="BZ2:CI2"/>
-    <mergeCell ref="CJ2:CP2"/>
-    <mergeCell ref="CQ2:CU2"/>
-    <mergeCell ref="CV2:DM2"/>
-    <mergeCell ref="DN2:DX2"/>
-    <mergeCell ref="DY2:EL2"/>
-    <mergeCell ref="EM2:ES2"/>
-    <mergeCell ref="ET2:EW2"/>
-    <mergeCell ref="EX2:FA2"/>
-    <mergeCell ref="FB2:FV2"/>
-    <mergeCell ref="FW2:GE2"/>
-    <mergeCell ref="IL2:IP2"/>
-    <mergeCell ref="IQ2:IX2"/>
-    <mergeCell ref="IY2:JH2"/>
-    <mergeCell ref="GN2:GV2"/>
-    <mergeCell ref="GW2:HD2"/>
-    <mergeCell ref="HE2:HI2"/>
-    <mergeCell ref="HJ2:HQ2"/>
-    <mergeCell ref="HR2:HV2"/>
-    <mergeCell ref="HW2:IK2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
